--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>Bảng phân công kế hoạch thực hiện đồ án Ứng dụng bảng băm xây dựng từ điển Anh-Việt</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Quốc Việt</t>
   </si>
   <si>
-    <t>Ngày bắt đầu(dự tính)</t>
-  </si>
-  <si>
-    <t>Ngày hoàn thành(dự tính)</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu(thực)</t>
-  </si>
-  <si>
-    <t>Ngày hoàn thành(thực)</t>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Ngày hoàn thành</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
   <si>
     <t>Tìm hiểu về bảng băm</t>
@@ -55,7 +55,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>20/09/2018</t>
+    <t>27/09/2018</t>
+  </si>
+  <si>
+    <t>30/09/2018</t>
   </si>
   <si>
     <t>Mục đích và hoàn cảnh sử dụng</t>
@@ -64,19 +67,56 @@
     <t>Xây dựng bảng băm</t>
   </si>
   <si>
-    <t>Khởi tạo bảng băm mở rộng</t>
-  </si>
-  <si>
-    <t>26/09/2018</t>
-  </si>
-  <si>
-    <t>kiểm tra một thành viên trong từ điển được cài bằng bẳng băm mở</t>
-  </si>
-  <si>
-    <t>Thêm một phần tử vào từ điển được cài bằng bảng băm mở</t>
-  </si>
-  <si>
-    <t>Xoá một phần tử trong từ điển được cài bằng bảng băm mở</t>
+    <t>khởi tạo bảng băm:
++ Xây dựng hàm băm
++ Tập khóa của các phần tử trên bảng băm
++ Tập địa chỉ trên bảng băm
++ Xem xét xung đột, đụng độ</t>
+  </si>
+  <si>
+    <t>xây dựng hàm tìm kiếm tra nghĩa trong từ điển</t>
+  </si>
+  <si>
+    <t>14/10/2018</t>
+  </si>
+  <si>
+    <t>xây dựng hàm dùng để cập nhập nghĩa cho 1 từ</t>
+  </si>
+  <si>
+    <t>xây dựng hàm dùng để xóa từ trong từ điển</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>19/10/2018</t>
+  </si>
+  <si>
+    <t>Xây dựng menu chính của tử điển</t>
+  </si>
+  <si>
+    <t>Thêm từ mới vào từ điển</t>
+  </si>
+  <si>
+    <t>17/10/2018</t>
+  </si>
+  <si>
+    <t>Nhập từ cần xóa</t>
+  </si>
+  <si>
+    <t>20/10/2018</t>
+  </si>
+  <si>
+    <t>Cập nhập nghĩa của từ</t>
+  </si>
+  <si>
+    <t>21/10/2018</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t>Tra nghĩa của từ</t>
   </si>
   <si>
     <t>Sữa lỗi và tối ưu</t>
@@ -85,22 +125,19 @@
     <t>kiểm tra chương trình</t>
   </si>
   <si>
-    <t>Tìm lỗi chuơng trình và đề giải pháp</t>
+    <t>24/10/2018</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>tìm lỗi chương trình và đề ra giải pháp</t>
   </si>
   <si>
     <t>Tổng kết</t>
   </si>
   <si>
-    <t>Thiết kế bản đồ án</t>
-  </si>
-  <si>
-    <t>20/10/2018</t>
-  </si>
-  <si>
     <t>Trình bày nội dung đồ án</t>
-  </si>
-  <si>
-    <t>22/10/2018</t>
   </si>
 </sst>
 </file>
@@ -109,9 +146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -155,7 +192,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +222,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -194,46 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,38 +291,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,25 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,157 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +529,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,21 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +606,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,134 +642,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +797,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -852,18 +895,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I32" totalsRowShown="0">
-  <autoFilter ref="A2:I32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I34" totalsRowShown="0">
+  <autoFilter ref="A2:I34"/>
   <tableColumns count="9">
     <tableColumn id="1" name="STT" dataDxfId="0"/>
     <tableColumn id="2" name="Các thao tác" dataDxfId="1"/>
     <tableColumn id="3" name="Phần việc cụ thể" dataDxfId="2"/>
     <tableColumn id="4" name="Minh Trung" dataDxfId="3"/>
     <tableColumn id="5" name="Quốc Việt" dataDxfId="4"/>
-    <tableColumn id="6" name="Ngày bắt đầu(dự tính)" dataDxfId="5"/>
-    <tableColumn id="7" name="Ngày hoàn thành(dự tính)" dataDxfId="6"/>
-    <tableColumn id="8" name="Ngày bắt đầu(thực)" dataDxfId="7"/>
-    <tableColumn id="9" name="Ngày hoàn thành(thực)" dataDxfId="8"/>
+    <tableColumn id="6" name="Ngày bắt đầu" dataDxfId="5"/>
+    <tableColumn id="7" name="Ngày hoàn thành" dataDxfId="6"/>
+    <tableColumn id="8" name="Column1" dataDxfId="7"/>
+    <tableColumn id="9" name="Column2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,16 +1170,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="26.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="32.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="60.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="17.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
@@ -1207,7 +1250,9 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -1215,7 +1260,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1226,7 +1271,9 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -1235,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="2"/>
@@ -1245,20 +1292,24 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="75" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43110</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43322</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -1283,10 +1334,12 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="8">
+        <v>43383</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -1305,16 +1358,18 @@
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="8">
-        <v>43200</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>43383</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -1333,16 +1388,18 @@
       <c r="A12" s="2"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
-        <v>43200</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -1362,20 +1419,12 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8">
-        <v>43414</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1384,18 +1433,18 @@
       <c r="A15" s="2"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8">
-        <v>43414</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -1411,41 +1460,31 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1453,11 +1492,19 @@
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
@@ -1475,11 +1522,19 @@
     <row r="21" spans="1:9">
       <c r="A21" s="2"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
@@ -1495,24 +1550,48 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
@@ -1528,13 +1607,25 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8">
+        <v>43142</v>
+      </c>
+      <c r="G26" s="8">
+        <v>43142</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
@@ -1571,38 +1662,65 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="2"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
